--- a/results/tables/statistical/omission_commission_errors.xlsx
+++ b/results/tables/statistical/omission_commission_errors.xlsx
@@ -17,7 +17,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="1">
+  <fonts count="5">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
@@ -25,16 +25,46 @@
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b val="1"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <b val="1"/>
+      <color rgb="00FFFFFF"/>
+      <sz val="11"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <b val="1"/>
+      <sz val="10"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="002C3E50"/>
+        <bgColor rgb="002C3E50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00ECF0F1"/>
+        <bgColor rgb="00ECF0F1"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -42,12 +72,65 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="medium"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -413,7 +496,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1:E25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -421,12 +504,615 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="3" customWidth="1" min="1" max="1"/>
+    <col width="12" customWidth="1" min="1" max="1"/>
+    <col width="8" customWidth="1" min="2" max="2"/>
+    <col width="21" customWidth="1" min="3" max="3"/>
+    <col width="23" customWidth="1" min="4" max="4"/>
+    <col width="18" customWidth="1" min="5" max="5"/>
   </cols>
   <sheetData>
-    <row r="1" ht="25" customHeight="1"/>
-    <row r="2"/>
+    <row r="1" ht="25" customHeight="1">
+      <c r="A1" s="2" t="inlineStr">
+        <is>
+          <t>Model</t>
+        </is>
+      </c>
+      <c r="B1" s="3" t="inlineStr">
+        <is>
+          <t>Class</t>
+        </is>
+      </c>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Omission Error (%)</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="inlineStr">
+        <is>
+          <t>Commission Error (%)</t>
+        </is>
+      </c>
+      <c r="E1" s="3" t="inlineStr">
+        <is>
+          <t>Total Error (%)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="inlineStr">
+        <is>
+          <t>RESNET18</t>
+        </is>
+      </c>
+      <c r="B2" s="5" t="inlineStr">
+        <is>
+          <t>Water</t>
+        </is>
+      </c>
+      <c r="C2" s="5" t="inlineStr">
+        <is>
+          <t>48.430</t>
+        </is>
+      </c>
+      <c r="D2" s="5" t="inlineStr">
+        <is>
+          <t>20.139</t>
+        </is>
+      </c>
+      <c r="E2" s="5" t="inlineStr">
+        <is>
+          <t>34.285</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="6" t="n"/>
+      <c r="B3" s="7" t="inlineStr">
+        <is>
+          <t>Trees</t>
+        </is>
+      </c>
+      <c r="C3" s="7" t="inlineStr">
+        <is>
+          <t>43.716</t>
+        </is>
+      </c>
+      <c r="D3" s="7" t="inlineStr">
+        <is>
+          <t>10.907</t>
+        </is>
+      </c>
+      <c r="E3" s="7" t="inlineStr">
+        <is>
+          <t>27.312</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="6" t="n"/>
+      <c r="B4" s="5" t="inlineStr">
+        <is>
+          <t>Crops</t>
+        </is>
+      </c>
+      <c r="C4" s="5" t="inlineStr">
+        <is>
+          <t>5.240</t>
+        </is>
+      </c>
+      <c r="D4" s="5" t="inlineStr">
+        <is>
+          <t>26.167</t>
+        </is>
+      </c>
+      <c r="E4" s="5" t="inlineStr">
+        <is>
+          <t>15.703</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="6" t="n"/>
+      <c r="B5" s="7" t="inlineStr">
+        <is>
+          <t>Shrub</t>
+        </is>
+      </c>
+      <c r="C5" s="7" t="inlineStr">
+        <is>
+          <t>74.286</t>
+        </is>
+      </c>
+      <c r="D5" s="7" t="inlineStr">
+        <is>
+          <t>50.000</t>
+        </is>
+      </c>
+      <c r="E5" s="7" t="inlineStr">
+        <is>
+          <t>62.143</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="6" t="n"/>
+      <c r="B6" s="5" t="inlineStr">
+        <is>
+          <t>Built</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="inlineStr">
+        <is>
+          <t>59.353</t>
+        </is>
+      </c>
+      <c r="D6" s="5" t="inlineStr">
+        <is>
+          <t>33.724</t>
+        </is>
+      </c>
+      <c r="E6" s="5" t="inlineStr">
+        <is>
+          <t>46.538</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="8" t="n"/>
+      <c r="B7" s="7" t="inlineStr">
+        <is>
+          <t>Bare</t>
+        </is>
+      </c>
+      <c r="C7" s="7" t="inlineStr">
+        <is>
+          <t>88.333</t>
+        </is>
+      </c>
+      <c r="D7" s="7" t="inlineStr">
+        <is>
+          <t>61.538</t>
+        </is>
+      </c>
+      <c r="E7" s="7" t="inlineStr">
+        <is>
+          <t>74.936</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="4" t="inlineStr">
+        <is>
+          <t>RESNET34</t>
+        </is>
+      </c>
+      <c r="B8" s="5" t="inlineStr">
+        <is>
+          <t>Water</t>
+        </is>
+      </c>
+      <c r="C8" s="5" t="inlineStr">
+        <is>
+          <t>48.879</t>
+        </is>
+      </c>
+      <c r="D8" s="5" t="inlineStr">
+        <is>
+          <t>19.718</t>
+        </is>
+      </c>
+      <c r="E8" s="5" t="inlineStr">
+        <is>
+          <t>34.299</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="6" t="n"/>
+      <c r="B9" s="7" t="inlineStr">
+        <is>
+          <t>Trees</t>
+        </is>
+      </c>
+      <c r="C9" s="7" t="inlineStr">
+        <is>
+          <t>42.085</t>
+        </is>
+      </c>
+      <c r="D9" s="7" t="inlineStr">
+        <is>
+          <t>14.714</t>
+        </is>
+      </c>
+      <c r="E9" s="7" t="inlineStr">
+        <is>
+          <t>28.399</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="6" t="n"/>
+      <c r="B10" s="5" t="inlineStr">
+        <is>
+          <t>Crops</t>
+        </is>
+      </c>
+      <c r="C10" s="5" t="inlineStr">
+        <is>
+          <t>6.565</t>
+        </is>
+      </c>
+      <c r="D10" s="5" t="inlineStr">
+        <is>
+          <t>26.079</t>
+        </is>
+      </c>
+      <c r="E10" s="5" t="inlineStr">
+        <is>
+          <t>16.322</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="6" t="n"/>
+      <c r="B11" s="7" t="inlineStr">
+        <is>
+          <t>Shrub</t>
+        </is>
+      </c>
+      <c r="C11" s="7" t="inlineStr">
+        <is>
+          <t>80.000</t>
+        </is>
+      </c>
+      <c r="D11" s="7" t="inlineStr">
+        <is>
+          <t>53.333</t>
+        </is>
+      </c>
+      <c r="E11" s="7" t="inlineStr">
+        <is>
+          <t>66.667</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="6" t="n"/>
+      <c r="B12" s="5" t="inlineStr">
+        <is>
+          <t>Built</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="inlineStr">
+        <is>
+          <t>65.827</t>
+        </is>
+      </c>
+      <c r="D12" s="5" t="inlineStr">
+        <is>
+          <t>23.387</t>
+        </is>
+      </c>
+      <c r="E12" s="5" t="inlineStr">
+        <is>
+          <t>44.607</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="8" t="n"/>
+      <c r="B13" s="7" t="inlineStr">
+        <is>
+          <t>Bare</t>
+        </is>
+      </c>
+      <c r="C13" s="7" t="inlineStr">
+        <is>
+          <t>88.667</t>
+        </is>
+      </c>
+      <c r="D13" s="7" t="inlineStr">
+        <is>
+          <t>44.262</t>
+        </is>
+      </c>
+      <c r="E13" s="7" t="inlineStr">
+        <is>
+          <t>66.464</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="4" t="inlineStr">
+        <is>
+          <t>RESNET101</t>
+        </is>
+      </c>
+      <c r="B14" s="5" t="inlineStr">
+        <is>
+          <t>Water</t>
+        </is>
+      </c>
+      <c r="C14" s="5" t="inlineStr">
+        <is>
+          <t>47.982</t>
+        </is>
+      </c>
+      <c r="D14" s="5" t="inlineStr">
+        <is>
+          <t>21.088</t>
+        </is>
+      </c>
+      <c r="E14" s="5" t="inlineStr">
+        <is>
+          <t>34.535</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="6" t="n"/>
+      <c r="B15" s="7" t="inlineStr">
+        <is>
+          <t>Trees</t>
+        </is>
+      </c>
+      <c r="C15" s="7" t="inlineStr">
+        <is>
+          <t>41.276</t>
+        </is>
+      </c>
+      <c r="D15" s="7" t="inlineStr">
+        <is>
+          <t>13.471</t>
+        </is>
+      </c>
+      <c r="E15" s="7" t="inlineStr">
+        <is>
+          <t>27.373</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="6" t="n"/>
+      <c r="B16" s="5" t="inlineStr">
+        <is>
+          <t>Crops</t>
+        </is>
+      </c>
+      <c r="C16" s="5" t="inlineStr">
+        <is>
+          <t>6.888</t>
+        </is>
+      </c>
+      <c r="D16" s="5" t="inlineStr">
+        <is>
+          <t>25.330</t>
+        </is>
+      </c>
+      <c r="E16" s="5" t="inlineStr">
+        <is>
+          <t>16.109</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="6" t="n"/>
+      <c r="B17" s="7" t="inlineStr">
+        <is>
+          <t>Shrub</t>
+        </is>
+      </c>
+      <c r="C17" s="7" t="inlineStr">
+        <is>
+          <t>57.143</t>
+        </is>
+      </c>
+      <c r="D17" s="7" t="inlineStr">
+        <is>
+          <t>65.116</t>
+        </is>
+      </c>
+      <c r="E17" s="7" t="inlineStr">
+        <is>
+          <t>61.130</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="6" t="n"/>
+      <c r="B18" s="5" t="inlineStr">
+        <is>
+          <t>Built</t>
+        </is>
+      </c>
+      <c r="C18" s="5" t="inlineStr">
+        <is>
+          <t>56.835</t>
+        </is>
+      </c>
+      <c r="D18" s="5" t="inlineStr">
+        <is>
+          <t>34.605</t>
+        </is>
+      </c>
+      <c r="E18" s="5" t="inlineStr">
+        <is>
+          <t>45.720</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="8" t="n"/>
+      <c r="B19" s="7" t="inlineStr">
+        <is>
+          <t>Bare</t>
+        </is>
+      </c>
+      <c r="C19" s="7" t="inlineStr">
+        <is>
+          <t>86.333</t>
+        </is>
+      </c>
+      <c r="D19" s="7" t="inlineStr">
+        <is>
+          <t>61.682</t>
+        </is>
+      </c>
+      <c r="E19" s="7" t="inlineStr">
+        <is>
+          <t>74.008</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="4" t="inlineStr">
+        <is>
+          <t>RESNET152</t>
+        </is>
+      </c>
+      <c r="B20" s="5" t="inlineStr">
+        <is>
+          <t>Water</t>
+        </is>
+      </c>
+      <c r="C20" s="5" t="inlineStr">
+        <is>
+          <t>64.126</t>
+        </is>
+      </c>
+      <c r="D20" s="5" t="inlineStr">
+        <is>
+          <t>12.088</t>
+        </is>
+      </c>
+      <c r="E20" s="5" t="inlineStr">
+        <is>
+          <t>38.107</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="6" t="n"/>
+      <c r="B21" s="7" t="inlineStr">
+        <is>
+          <t>Trees</t>
+        </is>
+      </c>
+      <c r="C21" s="7" t="inlineStr">
+        <is>
+          <t>41.289</t>
+        </is>
+      </c>
+      <c r="D21" s="7" t="inlineStr">
+        <is>
+          <t>14.778</t>
+        </is>
+      </c>
+      <c r="E21" s="7" t="inlineStr">
+        <is>
+          <t>28.033</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="6" t="n"/>
+      <c r="B22" s="5" t="inlineStr">
+        <is>
+          <t>Crops</t>
+        </is>
+      </c>
+      <c r="C22" s="5" t="inlineStr">
+        <is>
+          <t>7.384</t>
+        </is>
+      </c>
+      <c r="D22" s="5" t="inlineStr">
+        <is>
+          <t>25.562</t>
+        </is>
+      </c>
+      <c r="E22" s="5" t="inlineStr">
+        <is>
+          <t>16.473</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="6" t="n"/>
+      <c r="B23" s="7" t="inlineStr">
+        <is>
+          <t>Shrub</t>
+        </is>
+      </c>
+      <c r="C23" s="7" t="inlineStr">
+        <is>
+          <t>68.571</t>
+        </is>
+      </c>
+      <c r="D23" s="7" t="inlineStr">
+        <is>
+          <t>69.444</t>
+        </is>
+      </c>
+      <c r="E23" s="7" t="inlineStr">
+        <is>
+          <t>69.008</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="6" t="n"/>
+      <c r="B24" s="5" t="inlineStr">
+        <is>
+          <t>Built</t>
+        </is>
+      </c>
+      <c r="C24" s="5" t="inlineStr">
+        <is>
+          <t>57.554</t>
+        </is>
+      </c>
+      <c r="D24" s="5" t="inlineStr">
+        <is>
+          <t>36.898</t>
+        </is>
+      </c>
+      <c r="E24" s="5" t="inlineStr">
+        <is>
+          <t>47.226</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="8" t="n"/>
+      <c r="B25" s="7" t="inlineStr">
+        <is>
+          <t>Bare</t>
+        </is>
+      </c>
+      <c r="C25" s="7" t="inlineStr">
+        <is>
+          <t>83.000</t>
+        </is>
+      </c>
+      <c r="D25" s="7" t="inlineStr">
+        <is>
+          <t>57.143</t>
+        </is>
+      </c>
+      <c r="E25" s="7" t="inlineStr">
+        <is>
+          <t>70.071</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A8:A13"/>
+    <mergeCell ref="A2:A7"/>
+    <mergeCell ref="A14:A19"/>
+    <mergeCell ref="A20:A25"/>
+  </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/results/tables/statistical/omission_commission_errors.xlsx
+++ b/results/tables/statistical/omission_commission_errors.xlsx
@@ -496,7 +496,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E25"/>
+  <dimension ref="A1:E31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -504,7 +504,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="12" customWidth="1" min="1" max="1"/>
+    <col width="18" customWidth="1" min="1" max="1"/>
     <col width="8" customWidth="1" min="2" max="2"/>
     <col width="21" customWidth="1" min="3" max="3"/>
     <col width="23" customWidth="1" min="4" max="4"/>
@@ -541,7 +541,7 @@
     <row r="2">
       <c r="A2" s="4" t="inlineStr">
         <is>
-          <t>RESNET18</t>
+          <t>CONVNEXT_TINY</t>
         </is>
       </c>
       <c r="B2" s="5" t="inlineStr">
@@ -551,17 +551,17 @@
       </c>
       <c r="C2" s="5" t="inlineStr">
         <is>
-          <t>48.430</t>
+          <t>48.879</t>
         </is>
       </c>
       <c r="D2" s="5" t="inlineStr">
         <is>
-          <t>20.139</t>
+          <t>19.149</t>
         </is>
       </c>
       <c r="E2" s="5" t="inlineStr">
         <is>
-          <t>34.285</t>
+          <t>34.014</t>
         </is>
       </c>
     </row>
@@ -574,17 +574,17 @@
       </c>
       <c r="C3" s="7" t="inlineStr">
         <is>
-          <t>43.716</t>
+          <t>39.738</t>
         </is>
       </c>
       <c r="D3" s="7" t="inlineStr">
         <is>
-          <t>10.907</t>
+          <t>9.296</t>
         </is>
       </c>
       <c r="E3" s="7" t="inlineStr">
         <is>
-          <t>27.312</t>
+          <t>24.517</t>
         </is>
       </c>
     </row>
@@ -597,17 +597,17 @@
       </c>
       <c r="C4" s="5" t="inlineStr">
         <is>
-          <t>5.240</t>
+          <t>4.830</t>
         </is>
       </c>
       <c r="D4" s="5" t="inlineStr">
         <is>
-          <t>26.167</t>
+          <t>24.315</t>
         </is>
       </c>
       <c r="E4" s="5" t="inlineStr">
         <is>
-          <t>15.703</t>
+          <t>14.573</t>
         </is>
       </c>
     </row>
@@ -620,17 +620,17 @@
       </c>
       <c r="C5" s="7" t="inlineStr">
         <is>
-          <t>74.286</t>
+          <t>80.000</t>
         </is>
       </c>
       <c r="D5" s="7" t="inlineStr">
         <is>
-          <t>50.000</t>
+          <t>30.000</t>
         </is>
       </c>
       <c r="E5" s="7" t="inlineStr">
         <is>
-          <t>62.143</t>
+          <t>55.000</t>
         </is>
       </c>
     </row>
@@ -643,17 +643,17 @@
       </c>
       <c r="C6" s="5" t="inlineStr">
         <is>
-          <t>59.353</t>
+          <t>48.921</t>
         </is>
       </c>
       <c r="D6" s="5" t="inlineStr">
         <is>
-          <t>33.724</t>
+          <t>35.601</t>
         </is>
       </c>
       <c r="E6" s="5" t="inlineStr">
         <is>
-          <t>46.538</t>
+          <t>42.261</t>
         </is>
       </c>
     </row>
@@ -666,24 +666,24 @@
       </c>
       <c r="C7" s="7" t="inlineStr">
         <is>
-          <t>88.333</t>
+          <t>87.667</t>
         </is>
       </c>
       <c r="D7" s="7" t="inlineStr">
         <is>
-          <t>61.538</t>
+          <t>36.207</t>
         </is>
       </c>
       <c r="E7" s="7" t="inlineStr">
         <is>
-          <t>74.936</t>
+          <t>61.937</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="4" t="inlineStr">
         <is>
-          <t>RESNET34</t>
+          <t>DENSENET121</t>
         </is>
       </c>
       <c r="B8" s="5" t="inlineStr">
@@ -693,17 +693,17 @@
       </c>
       <c r="C8" s="5" t="inlineStr">
         <is>
-          <t>48.879</t>
+          <t>47.982</t>
         </is>
       </c>
       <c r="D8" s="5" t="inlineStr">
         <is>
-          <t>19.718</t>
+          <t>30.120</t>
         </is>
       </c>
       <c r="E8" s="5" t="inlineStr">
         <is>
-          <t>34.299</t>
+          <t>39.051</t>
         </is>
       </c>
     </row>
@@ -716,17 +716,17 @@
       </c>
       <c r="C9" s="7" t="inlineStr">
         <is>
-          <t>42.085</t>
+          <t>39.819</t>
         </is>
       </c>
       <c r="D9" s="7" t="inlineStr">
         <is>
-          <t>14.714</t>
+          <t>10.633</t>
         </is>
       </c>
       <c r="E9" s="7" t="inlineStr">
         <is>
-          <t>28.399</t>
+          <t>25.226</t>
         </is>
       </c>
     </row>
@@ -739,17 +739,17 @@
       </c>
       <c r="C10" s="5" t="inlineStr">
         <is>
-          <t>6.565</t>
+          <t>4.926</t>
         </is>
       </c>
       <c r="D10" s="5" t="inlineStr">
         <is>
-          <t>26.079</t>
+          <t>24.491</t>
         </is>
       </c>
       <c r="E10" s="5" t="inlineStr">
         <is>
-          <t>16.322</t>
+          <t>14.708</t>
         </is>
       </c>
     </row>
@@ -762,17 +762,17 @@
       </c>
       <c r="C11" s="7" t="inlineStr">
         <is>
-          <t>80.000</t>
+          <t>77.143</t>
         </is>
       </c>
       <c r="D11" s="7" t="inlineStr">
         <is>
-          <t>53.333</t>
+          <t>52.941</t>
         </is>
       </c>
       <c r="E11" s="7" t="inlineStr">
         <is>
-          <t>66.667</t>
+          <t>65.042</t>
         </is>
       </c>
     </row>
@@ -785,17 +785,17 @@
       </c>
       <c r="C12" s="5" t="inlineStr">
         <is>
-          <t>65.827</t>
+          <t>57.734</t>
         </is>
       </c>
       <c r="D12" s="5" t="inlineStr">
         <is>
-          <t>23.387</t>
+          <t>23.948</t>
         </is>
       </c>
       <c r="E12" s="5" t="inlineStr">
         <is>
-          <t>44.607</t>
+          <t>40.841</t>
         </is>
       </c>
     </row>
@@ -808,24 +808,24 @@
       </c>
       <c r="C13" s="7" t="inlineStr">
         <is>
-          <t>88.667</t>
+          <t>86.000</t>
         </is>
       </c>
       <c r="D13" s="7" t="inlineStr">
         <is>
-          <t>44.262</t>
+          <t>41.667</t>
         </is>
       </c>
       <c r="E13" s="7" t="inlineStr">
         <is>
-          <t>66.464</t>
+          <t>63.833</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="4" t="inlineStr">
         <is>
-          <t>RESNET101</t>
+          <t>EFFICIENTNET_B3</t>
         </is>
       </c>
       <c r="B14" s="5" t="inlineStr">
@@ -835,17 +835,17 @@
       </c>
       <c r="C14" s="5" t="inlineStr">
         <is>
-          <t>47.982</t>
+          <t>56.502</t>
         </is>
       </c>
       <c r="D14" s="5" t="inlineStr">
         <is>
-          <t>21.088</t>
+          <t>11.818</t>
         </is>
       </c>
       <c r="E14" s="5" t="inlineStr">
         <is>
-          <t>34.535</t>
+          <t>34.160</t>
         </is>
       </c>
     </row>
@@ -858,17 +858,17 @@
       </c>
       <c r="C15" s="7" t="inlineStr">
         <is>
-          <t>41.276</t>
+          <t>42.300</t>
         </is>
       </c>
       <c r="D15" s="7" t="inlineStr">
         <is>
-          <t>13.471</t>
+          <t>8.568</t>
         </is>
       </c>
       <c r="E15" s="7" t="inlineStr">
         <is>
-          <t>27.373</t>
+          <t>25.434</t>
         </is>
       </c>
     </row>
@@ -881,17 +881,17 @@
       </c>
       <c r="C16" s="5" t="inlineStr">
         <is>
-          <t>6.888</t>
+          <t>3.548</t>
         </is>
       </c>
       <c r="D16" s="5" t="inlineStr">
         <is>
-          <t>25.330</t>
+          <t>25.767</t>
         </is>
       </c>
       <c r="E16" s="5" t="inlineStr">
         <is>
-          <t>16.109</t>
+          <t>14.658</t>
         </is>
       </c>
     </row>
@@ -904,17 +904,17 @@
       </c>
       <c r="C17" s="7" t="inlineStr">
         <is>
-          <t>57.143</t>
+          <t>65.714</t>
         </is>
       </c>
       <c r="D17" s="7" t="inlineStr">
         <is>
-          <t>65.116</t>
+          <t>61.290</t>
         </is>
       </c>
       <c r="E17" s="7" t="inlineStr">
         <is>
-          <t>61.130</t>
+          <t>63.502</t>
         </is>
       </c>
     </row>
@@ -927,17 +927,17 @@
       </c>
       <c r="C18" s="5" t="inlineStr">
         <is>
-          <t>56.835</t>
+          <t>71.223</t>
         </is>
       </c>
       <c r="D18" s="5" t="inlineStr">
         <is>
-          <t>34.605</t>
+          <t>11.111</t>
         </is>
       </c>
       <c r="E18" s="5" t="inlineStr">
         <is>
-          <t>45.720</t>
+          <t>41.167</t>
         </is>
       </c>
     </row>
@@ -950,24 +950,24 @@
       </c>
       <c r="C19" s="7" t="inlineStr">
         <is>
-          <t>86.333</t>
+          <t>81.667</t>
         </is>
       </c>
       <c r="D19" s="7" t="inlineStr">
         <is>
-          <t>61.682</t>
+          <t>42.708</t>
         </is>
       </c>
       <c r="E19" s="7" t="inlineStr">
         <is>
-          <t>74.008</t>
+          <t>62.187</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="4" t="inlineStr">
         <is>
-          <t>RESNET152</t>
+          <t>RESNET50</t>
         </is>
       </c>
       <c r="B20" s="5" t="inlineStr">
@@ -977,17 +977,17 @@
       </c>
       <c r="C20" s="5" t="inlineStr">
         <is>
-          <t>64.126</t>
+          <t>44.843</t>
         </is>
       </c>
       <c r="D20" s="5" t="inlineStr">
         <is>
-          <t>12.088</t>
+          <t>16.892</t>
         </is>
       </c>
       <c r="E20" s="5" t="inlineStr">
         <is>
-          <t>38.107</t>
+          <t>30.867</t>
         </is>
       </c>
     </row>
@@ -1000,17 +1000,17 @@
       </c>
       <c r="C21" s="7" t="inlineStr">
         <is>
-          <t>41.289</t>
+          <t>40.858</t>
         </is>
       </c>
       <c r="D21" s="7" t="inlineStr">
         <is>
-          <t>14.778</t>
+          <t>10.141</t>
         </is>
       </c>
       <c r="E21" s="7" t="inlineStr">
         <is>
-          <t>28.033</t>
+          <t>25.499</t>
         </is>
       </c>
     </row>
@@ -1023,17 +1023,17 @@
       </c>
       <c r="C22" s="5" t="inlineStr">
         <is>
-          <t>7.384</t>
+          <t>4.647</t>
         </is>
       </c>
       <c r="D22" s="5" t="inlineStr">
         <is>
-          <t>25.562</t>
+          <t>24.842</t>
         </is>
       </c>
       <c r="E22" s="5" t="inlineStr">
         <is>
-          <t>16.473</t>
+          <t>14.744</t>
         </is>
       </c>
     </row>
@@ -1046,17 +1046,17 @@
       </c>
       <c r="C23" s="7" t="inlineStr">
         <is>
-          <t>68.571</t>
+          <t>88.571</t>
         </is>
       </c>
       <c r="D23" s="7" t="inlineStr">
         <is>
-          <t>69.444</t>
+          <t>63.636</t>
         </is>
       </c>
       <c r="E23" s="7" t="inlineStr">
         <is>
-          <t>69.008</t>
+          <t>76.104</t>
         </is>
       </c>
     </row>
@@ -1069,17 +1069,17 @@
       </c>
       <c r="C24" s="5" t="inlineStr">
         <is>
-          <t>57.554</t>
+          <t>57.734</t>
         </is>
       </c>
       <c r="D24" s="5" t="inlineStr">
         <is>
-          <t>36.898</t>
+          <t>22.951</t>
         </is>
       </c>
       <c r="E24" s="5" t="inlineStr">
         <is>
-          <t>47.226</t>
+          <t>40.342</t>
         </is>
       </c>
     </row>
@@ -1092,26 +1092,169 @@
       </c>
       <c r="C25" s="7" t="inlineStr">
         <is>
-          <t>83.000</t>
+          <t>85.667</t>
         </is>
       </c>
       <c r="D25" s="7" t="inlineStr">
         <is>
-          <t>57.143</t>
+          <t>58.252</t>
         </is>
       </c>
       <c r="E25" s="7" t="inlineStr">
         <is>
-          <t>70.071</t>
+          <t>71.960</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="4" t="inlineStr">
+        <is>
+          <t>SWIN_TINY</t>
+        </is>
+      </c>
+      <c r="B26" s="5" t="inlineStr">
+        <is>
+          <t>Water</t>
+        </is>
+      </c>
+      <c r="C26" s="5" t="inlineStr">
+        <is>
+          <t>45.291</t>
+        </is>
+      </c>
+      <c r="D26" s="5" t="inlineStr">
+        <is>
+          <t>27.381</t>
+        </is>
+      </c>
+      <c r="E26" s="5" t="inlineStr">
+        <is>
+          <t>36.336</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="6" t="n"/>
+      <c r="B27" s="7" t="inlineStr">
+        <is>
+          <t>Trees</t>
+        </is>
+      </c>
+      <c r="C27" s="7" t="inlineStr">
+        <is>
+          <t>38.444</t>
+        </is>
+      </c>
+      <c r="D27" s="7" t="inlineStr">
+        <is>
+          <t>9.622</t>
+        </is>
+      </c>
+      <c r="E27" s="7" t="inlineStr">
+        <is>
+          <t>24.033</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="6" t="n"/>
+      <c r="B28" s="5" t="inlineStr">
+        <is>
+          <t>Crops</t>
+        </is>
+      </c>
+      <c r="C28" s="5" t="inlineStr">
+        <is>
+          <t>4.943</t>
+        </is>
+      </c>
+      <c r="D28" s="5" t="inlineStr">
+        <is>
+          <t>23.819</t>
+        </is>
+      </c>
+      <c r="E28" s="5" t="inlineStr">
+        <is>
+          <t>14.381</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="6" t="n"/>
+      <c r="B29" s="7" t="inlineStr">
+        <is>
+          <t>Shrub</t>
+        </is>
+      </c>
+      <c r="C29" s="7" t="inlineStr">
+        <is>
+          <t>74.286</t>
+        </is>
+      </c>
+      <c r="D29" s="7" t="inlineStr">
+        <is>
+          <t>35.714</t>
+        </is>
+      </c>
+      <c r="E29" s="7" t="inlineStr">
+        <is>
+          <t>55.000</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="6" t="n"/>
+      <c r="B30" s="5" t="inlineStr">
+        <is>
+          <t>Built</t>
+        </is>
+      </c>
+      <c r="C30" s="5" t="inlineStr">
+        <is>
+          <t>53.237</t>
+        </is>
+      </c>
+      <c r="D30" s="5" t="inlineStr">
+        <is>
+          <t>31.937</t>
+        </is>
+      </c>
+      <c r="E30" s="5" t="inlineStr">
+        <is>
+          <t>42.587</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="8" t="n"/>
+      <c r="B31" s="7" t="inlineStr">
+        <is>
+          <t>Bare</t>
+        </is>
+      </c>
+      <c r="C31" s="7" t="inlineStr">
+        <is>
+          <t>83.667</t>
+        </is>
+      </c>
+      <c r="D31" s="7" t="inlineStr">
+        <is>
+          <t>32.877</t>
+        </is>
+      </c>
+      <c r="E31" s="7" t="inlineStr">
+        <is>
+          <t>58.272</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="5">
     <mergeCell ref="A8:A13"/>
+    <mergeCell ref="A26:A31"/>
+    <mergeCell ref="A20:A25"/>
     <mergeCell ref="A2:A7"/>
     <mergeCell ref="A14:A19"/>
-    <mergeCell ref="A20:A25"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
